--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/21totoxBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/21totoxBrokenData.xlsx
@@ -6,15 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CopyGames" r:id="rId3" sheetId="1"/>
-    <sheet name="ProvidersBrokenImgWeb" r:id="rId4" sheetId="2"/>
-    <sheet name="GamesBrokenImgWeb" r:id="rId5" sheetId="3"/>
+    <sheet name="CopyGames" r:id="rId6" sheetId="4"/>
+    <sheet name="ProvidersBrokenImgWeb" r:id="rId7" sheetId="5"/>
+    <sheet name="GamesBrokenImgWeb" r:id="rId5" sheetId="6"/>
+    <sheet name="GamesBrokenURL" r:id="rId8" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>TalesOfDarkness</t>
   </si>
@@ -80,6 +81,132 @@
   </si>
   <si>
     <t>331  Game ID = 1269  Game Provider Name = RedTiger   Game Name =  Wings Of Ra  src = https://static.egamings.com/games/redtigergaming/wings_of_ra.jpg</t>
+  </si>
+  <si>
+    <t>10  Game ID = 1492  Game Provider Name = Booongo   Game Name =  777 Gems Respin  src = https://static.egamings.com/games/booongo/777_gems_respin.jpg</t>
+  </si>
+  <si>
+    <t>12  Game ID = 1500  Game Provider Name = Booongo   Game Name =  88 Wild Dragon  src = https://static.egamings.com/games/booongo/88_wild_dragon.jpg</t>
+  </si>
+  <si>
+    <t>13  Game ID = 1510  Game Provider Name = Booongo   Game Name =  African Spirit  src = https://static.egamings.com/games/booongo/african_spirit.jpg</t>
+  </si>
+  <si>
+    <t>14  Game ID = 1491  Game Provider Name = Booongo   Game Name =  Age of Caesar  src = https://static.egamings.com/games/booongo/age_of_caesar.jpg</t>
+  </si>
+  <si>
+    <t>29  Game ID = 1486  Game Provider Name = Wazdan   Game Name =  Black Hawk Deluxe  cod = 404   src = https://resources.iqsoftllc.com/products/wazdan\web\bhd_wzdn.jpg</t>
+  </si>
+  <si>
+    <t>58  Game ID = 1511  Game Provider Name = Booongo   Game Name =  Christmas Charm  src = https://static.egamings.com/games/booongo/christmas_charm.jpg</t>
+  </si>
+  <si>
+    <t>91  Game ID = 1193  Game Provider Name = RedTiger   Game Name =  Dragons Luck  cod = 404   src = https://resources.iqsoftllc.com/products/redtiger/web/dragons_luck.png</t>
+  </si>
+  <si>
+    <t>92  Game ID = 1194  Game Provider Name = RedTiger   Game Name =  Dragons Luck Megaways  cod = 404   src = https://resources.iqsoftllc.com/products/redtiger/web/dragons_luck_megaways.jpg</t>
+  </si>
+  <si>
+    <t>106  Game ID = 1075  Game Provider Name = NetEnt   Game Name =  Finn  cod = 404   src = https://resources.iqsoftllc.com/products/netent/web/Finn_252_190.jpg</t>
+  </si>
+  <si>
+    <t>122  Game ID = 1502  Game Provider Name = Booongo   Game Name =  Fortune Multiplier  src = https://static.egamings.com/games/booongo/fortune_multiplier.jpg</t>
+  </si>
+  <si>
+    <t>124  Game ID = 1008  Game Provider Name = PlaynGo   Game Name =  FreeReelinJoker  src = https://static.egamings.com/games/playngo/free_reelin_joker.jpg</t>
+  </si>
+  <si>
+    <t>130  Game ID = 1512  Game Provider Name = Booongo   Game Name =  Fruity Wild  src = https://static.egamings.com/games/leander/wild_and_fruity.jpg</t>
+  </si>
+  <si>
+    <t>131  Game ID = 1493  Game Provider Name = Booongo   Game Name =  Fu Cai Shen  src = https://static.egamings.com/games/booongo/fu_cai_shen.jpg</t>
+  </si>
+  <si>
+    <t>135  Game ID = 1209  Game Provider Name = RedTiger   Game Name =  God Of Wealth  src = https://static.egamings.com/games/redtigergaming/god_of_wealth.jpg</t>
+  </si>
+  <si>
+    <t>146  Game ID = 1212  Game Provider Name = RedTiger   Game Name =  Gonzo's Quest Megaways  cod = 404   src = https://resources.iqsoftllc.com/products/redtigergaming/web/gonzo's_quest_megaways.jpg</t>
+  </si>
+  <si>
+    <t>152  Game ID = 1010  Game Provider Name = PlaynGo   Game Name =  GreenKnight  src = https://static.egamings.com/games/playngo/the_green_knight.jpg</t>
+  </si>
+  <si>
+    <t>154  Game ID = 1214  Game Provider Name = RedTiger   Game Name =  Hammer Gods  src = https://static.egamings.com/games/redtigergaming/hammer_gods.jpg</t>
+  </si>
+  <si>
+    <t>203  Game ID = 1014  Game Provider Name = PlaynGo   Game Name =  LokisFortune  src = https://static.egamings.com/games/playngo/tales_of_asgard_lokis_fortune.jpg</t>
+  </si>
+  <si>
+    <t>216  Game ID = 1503  Game Provider Name = Booongo   Game Name =  Lucky Xmas  src = https://static.egamings.com/games/booongo/lucky_xmas.jpg</t>
+  </si>
+  <si>
+    <t>237  Game ID = 1494  Game Provider Name = Booongo   Game Name =  Monkey Money  src = https://static.egamings.com/games/booongo/monkey_money.jpg</t>
+  </si>
+  <si>
+    <t>255  Game ID = 1495  Game Provider Name = Booongo   Game Name =  Olympian Gods  src = https://static.egamings.com/games/booongo/olympian_gods.jpg</t>
+  </si>
+  <si>
+    <t>258  Game ID = 1513  Game Provider Name = Booongo   Game Name =  Patrick's Pub  cod = 404   src = https://resources.iqsoftllc.com/products/outcomebet/web/PatricksPub.png</t>
+  </si>
+  <si>
+    <t>286  Game ID = 1496  Game Provider Name = Booongo   Game Name =  Scarab Riches  src = https://static.egamings.com/games/booongo/scarab_riches.jpg</t>
+  </si>
+  <si>
+    <t>289  Game ID = 1504  Game Provider Name = Booongo   Game Name =  Secret of Nefertiti 2  src = https://static.egamings.com/games/booongo/secret_of_nefertiti_2.jpg</t>
+  </si>
+  <si>
+    <t>294  Game ID = 1497  Game Provider Name = Booongo   Game Name =  Shen Long Mi Bao  src = https://static.egamings.com/games/booongo/shen_long_mi_bao.jpg</t>
+  </si>
+  <si>
+    <t>295  Game ID = 1498  Game Provider Name = Booongo   Game Name =  Singles Day  cod = 404   src = https://resources.iqsoftllc.com/products/outcomebet/web/SinglesDay.png</t>
+  </si>
+  <si>
+    <t>299  Game ID = 1505  Game Provider Name = Booongo   Game Name =  Sky Gems: 5 Wilds  src = https://static.egamings.com/games/booongo/sky_gems_5_wilds.jpg</t>
+  </si>
+  <si>
+    <t>300  Game ID = 1251  Game Provider Name = RedTiger   Game Name =  Sky Warrior  src = https://static.egamings.com/games/redtigergaming/1942_sky_warrior.jpg</t>
+  </si>
+  <si>
+    <t>302  Game ID = 1252  Game Provider Name = RedTiger   Game Name =  Snow Wild And The 7 Features  src = https://static.egamings.com/games/redtigergaming/snow_wild_and_the_7_features.jpg</t>
+  </si>
+  <si>
+    <t>309  Game ID = 6  Game Provider Name = IQSoft   Game Name =  Sportsbook  cod = 404   src = https://resources.totox-stage.com/products/iqsoft/sport.png</t>
+  </si>
+  <si>
+    <t>311  Game ID = 1506  Game Provider Name = Booongo   Game Name =  Star Gems  src = https://static.egamings.com/games/booongo/star_gems.jpg</t>
+  </si>
+  <si>
+    <t>317  Game ID = 1509  Game Provider Name = Booongo   Game Name =  Supreme Fortune  src = https://static.egamings.com/games/booongo/supreme_fortune.jpg</t>
+  </si>
+  <si>
+    <t>335  Game ID = 1258  Game Provider Name = RedTiger   Game Name =  Totem Lightning Power Reels  src = https://static.egamings.com/games/redtigergaming/totem_lightning.jpg</t>
+  </si>
+  <si>
+    <t>351  Game ID = 1499  Game Provider Name = Booongo   Game Name =  Vikings Gods Gold  src = https://static.egamings.com/games/booongo/vikings_gods_gold.jpg</t>
+  </si>
+  <si>
+    <t>352  Game ID = 1507  Game Provider Name = Booongo   Game Name =  Vikings Winter  src = https://static.egamings.com/games/booongo/vikings_winter.jpg</t>
+  </si>
+  <si>
+    <t>359  Game ID = 1508  Game Provider Name = Booongo   Game Name =  Wild 888  src = https://static.egamings.com/games/booongo/wild_888.jpg</t>
+  </si>
+  <si>
+    <t>373  Game ID = 1269  Game Provider Name = RedTiger   Game Name =  Wings Of Ra  src = https://static.egamings.com/games/redtigergaming/wings_of_ra.jpg</t>
+  </si>
+  <si>
+    <t>30 ID=1486 Provider=Wazdan Name=Black Hawk Deluxe cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>107 ID=1075 Provider=NetEnt Name=Finn cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>160 ID=1080 Provider=NetEnt Name=Highlights cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>163 ID=1081 Provider=NetEnt Name=Hooks Heroes cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>225 ID=1487 Provider=Wazdan Name=Magic of the Ring Deluxe cod=0 description=null ResponseObject=SESSION_INVALID_PARAMS</t>
   </si>
 </sst>
 </file>
@@ -122,11 +249,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -148,7 +275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -163,9 +290,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -176,102 +504,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
